--- a/resources/experiment 1/metrics/MAPE/incidence/Amputación extremidades inferiores (INC).xlsx
+++ b/resources/experiment 1/metrics/MAPE/incidence/Amputación extremidades inferiores (INC).xlsx
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.03657671672597738</v>
+        <v>0.03730215356940209</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03654381419248812</v>
+        <v>0.03715467150880781</v>
       </c>
       <c r="D3" t="n">
-        <v>0.03654381419248812</v>
+        <v>0.06174247312753128</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0316654072388331</v>
+        <v>0.03402465816345154</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0316654072388331</v>
+        <v>0.03514819938377833</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0316654072388331</v>
+        <v>0.09199082799209106</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1354839604091349</v>
+        <v>0.04501843076036613</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1354468085384441</v>
+        <v>0.03271669992482031</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1354468085384441</v>
+        <v>0.03525352047568234</v>
       </c>
     </row>
   </sheetData>
